--- a/patient_memories.xlsx
+++ b/patient_memories.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>image1.jpeg</t>
+          <t>sad.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>raghav</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>You shared that you were happy while you were in Austria, even though it was cold and snowing. It was a special time for you because you got to make a snowman for the first time.</t>
+          <t>You shared that looking at this photo reminds you of a time when you felt sad and frustrated, and those feelings of anger and being upset still come up for you. Even though it was a difficult period, you’ve shown that you’re able to bounce back and move forward.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-06 20:59:06</t>
+          <t>2025-10-14 16:31:22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>d28b154c</t>
+          <t>6dc18e39-b746-4e7d-a091-0f011937185d</t>
         </is>
       </c>
     </row>
